--- a/技术资料/私享家IP分配表.xlsx
+++ b/技术资料/私享家IP分配表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>使用人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,67 +76,84 @@
     <t>08-57-00-2E-E8-DD</t>
   </si>
   <si>
+    <t>网关：192.168.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS：218.2.135.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈绍伟</t>
+  </si>
+  <si>
+    <t>9C-D2-1E-FA-9E-2D</t>
+  </si>
+  <si>
+    <t>192.168.1.105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶娟</t>
+  </si>
+  <si>
+    <t>74-D4-35-F7-79-FD</t>
+  </si>
+  <si>
+    <t>192.168.1.106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-E3-47-F8-30-76</t>
+  </si>
+  <si>
+    <t>192.168.1.107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74-D4-35-F8-17-F5</t>
+  </si>
+  <si>
+    <t>颜艳</t>
+  </si>
+  <si>
+    <t>192.168.1.108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安少帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-23-87-0F-83-3A</t>
+  </si>
+  <si>
+    <t>192.168.1.109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪绍堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-AA-14-85-7A-F9</t>
+  </si>
+  <si>
+    <t>192.168.1.110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑞禺</t>
+  </si>
+  <si>
     <t>192.168.1.104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关：192.168.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNS：218.2.135.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈绍伟</t>
-  </si>
-  <si>
-    <t>9C-D2-1E-FA-9E-2D</t>
-  </si>
-  <si>
-    <t>192.168.1.105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶娟</t>
-  </si>
-  <si>
-    <t>74-D4-35-F7-79-FD</t>
-  </si>
-  <si>
-    <t>192.168.1.106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28-E3-47-F8-30-76</t>
-  </si>
-  <si>
-    <t>192.168.1.107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74-D4-35-F8-17-F5</t>
-  </si>
-  <si>
-    <t>颜艳</t>
-  </si>
-  <si>
-    <t>192.168.1.108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安少帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34-23-87-0F-83-3A</t>
-  </si>
-  <si>
-    <t>192.168.1.109</t>
+  </si>
+  <si>
+    <t>192.168.1.111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,9 +200,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,12 +502,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -542,62 +562,84 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/技术资料/私享家IP分配表.xlsx
+++ b/技术资料/私享家IP分配表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>使用人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>192.168.1.111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁维嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0-7E-35-2F-81-0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.112</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,6 +654,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
